--- a/Jeff Sort this/1504/DriveBase custom/Material list  parts/Material list.xlsx
+++ b/Jeff Sort this/1504/DriveBase custom/Material list  parts/Material list.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff1\Documents\GitHub\CAD2018\1504\DriveBase custom\Material list  parts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff1\Documents\GitHub\CAD2018\Jeff Sort this\1504\DriveBase custom\Material list  parts\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="53">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -56,24 +56,6 @@
     <t>27.5in</t>
   </si>
   <si>
-    <t>8020_20mm_20mm</t>
-  </si>
-  <si>
-    <t>8020_20mm_40mm</t>
-  </si>
-  <si>
-    <t>https://8020.net/shop/40-4084-lite.html</t>
-  </si>
-  <si>
-    <t>https://8020.net/shop/40-4084-lite-black-fb.html</t>
-  </si>
-  <si>
-    <t>https://8020.net/shop/40-4040-lite-black-fb.html</t>
-  </si>
-  <si>
-    <t>https://8020.net/shop/40-4040-lite.html</t>
-  </si>
-  <si>
     <t>https://www.fastenal.com/products/details/1124050?r=~%7Ccategoryl1:%22600000%20Fasteners%22%7C~%20~%7Ccategoryl2:%22600039%20Sockets%22%7C~%20~%7Ccategoryl3:%22600043%20Button%20Socket%20Cap%20Screws%22%7C~</t>
   </si>
   <si>
@@ -83,9 +65,6 @@
     <t>Steel</t>
   </si>
   <si>
-    <t>$0.51 per in or $0.76 per in</t>
-  </si>
-  <si>
     <t>CIM Moter</t>
   </si>
   <si>
@@ -161,21 +140,9 @@
     <t>Hex Drive Black Socket Screw</t>
   </si>
   <si>
-    <t>$0.91 per in or $1.16 per in</t>
-  </si>
-  <si>
-    <t>This is for  two robots.  If you are only buying one, the dimensions are 30inX26in</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
-    <t>plain=C32 or black=C32</t>
-  </si>
-  <si>
-    <t>Plain=C29 or black=C30</t>
-  </si>
-  <si>
     <t>andymark=C38 or vex= C38</t>
   </si>
   <si>
@@ -195,6 +162,27 @@
   </si>
   <si>
     <t>$19.83/PKg of 100</t>
+  </si>
+  <si>
+    <t>8020_1in_3in</t>
+  </si>
+  <si>
+    <t>https://8020.net/shop/1030.html</t>
+  </si>
+  <si>
+    <t>$0.55 per in</t>
+  </si>
+  <si>
+    <t>$0.23 per in</t>
+  </si>
+  <si>
+    <t>This dimensioning for  two robots.  If you are only buying for one robot, the dimensions are 30inX26in</t>
+  </si>
+  <si>
+    <t>8020_1in-1in</t>
+  </si>
+  <si>
+    <t>https://8020.net/shop/1010.html</t>
   </si>
 </sst>
 </file>
@@ -312,7 +300,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -361,6 +349,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -379,7 +371,6 @@
     <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -696,10 +687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4A578CA-FD1B-461C-8172-01EB951502F9}">
-  <dimension ref="A2:I42"/>
+  <dimension ref="A2:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -709,10 +700,10 @@
     <col min="3" max="3" width="25.125" customWidth="1"/>
     <col min="4" max="4" width="40" customWidth="1"/>
     <col min="6" max="6" width="23.375" customWidth="1"/>
-    <col min="7" max="7" width="10.75" customWidth="1"/>
+    <col min="7" max="7" width="81.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -721,7 +712,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -741,220 +732,197 @@
         <v>5</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="17">
+      <c r="C4" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="19">
         <v>1</v>
       </c>
-      <c r="F4" s="23">
+      <c r="F4" s="25">
         <v>192.95</v>
       </c>
-      <c r="G4" s="20" t="s">
-        <v>46</v>
+      <c r="G4" s="22" t="s">
+        <v>50</v>
       </c>
       <c r="H4">
         <v>192.95</v>
       </c>
-      <c r="I4">
-        <v>192.95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="21"/>
-    </row>
-    <row r="6" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="23"/>
+    </row>
+    <row r="6" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>49</v>
+      <c r="C6" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E6" s="8">
         <v>2</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6">
-        <f>0.91*2*27.5</f>
-        <v>50.050000000000004</v>
-      </c>
-      <c r="I6">
-        <f>1.16*2*27.5</f>
-        <v>63.8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f>0.23*2*27.5</f>
+        <v>12.65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>48</v>
+      <c r="C7" s="17" t="s">
+        <v>47</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E7" s="8">
         <v>2</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7">
-        <f>0.51*2*27.5</f>
-        <v>28.05</v>
-      </c>
-      <c r="I7">
-        <f>0.79*2*27.5</f>
-        <v>43.45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <f>0.55*2*27.5</f>
+        <v>30.250000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="24" t="s">
-        <v>55</v>
-      </c>
       <c r="C8" s="15" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E8" s="8">
         <v>24</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8">
         <f>19.83</f>
         <v>19.829999999999998</v>
       </c>
-      <c r="I8">
-        <f>19.83</f>
-        <v>19.829999999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E9" s="8">
         <v>4</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9">
         <f>28*4</f>
         <v>112</v>
       </c>
-      <c r="I9">
-        <f>28*4</f>
-        <v>112</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="18" t="str">
+        <v>21</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="20" t="str">
         <f>C42</f>
         <v>https://www.vexrobotics.com/vexpro/motion/mecanum-wheels.html</v>
       </c>
-      <c r="D10" s="19" t="s">
-        <v>24</v>
+      <c r="D10" s="21" t="s">
+        <v>17</v>
       </c>
       <c r="E10" s="8">
         <v>2</v>
       </c>
-      <c r="F10" s="17" t="s">
-        <v>30</v>
+      <c r="F10" s="19" t="s">
+        <v>23</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10">
         <f>39.99*4</f>
         <v>159.96</v>
       </c>
-      <c r="I10">
-        <f>39.99*4</f>
-        <v>159.96</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="19"/>
+        <v>22</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="21"/>
       <c r="E11" s="8">
         <v>2</v>
       </c>
-      <c r="F11" s="17"/>
+      <c r="F11" s="19"/>
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E12" s="8">
         <v>4</v>
@@ -966,90 +934,75 @@
       <c r="H12">
         <v>54.97</v>
       </c>
-      <c r="I12">
-        <v>55.97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E13" s="8">
         <v>20</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H13">
         <f>0.79*22</f>
         <v>17.380000000000003</v>
       </c>
-      <c r="I13">
-        <f>0.79*22</f>
-        <v>17.380000000000003</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E14" s="8">
         <v>20</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H14">
         <f>0.33*22</f>
         <v>7.2600000000000007</v>
       </c>
-      <c r="I14">
-        <f>0.33*22</f>
-        <v>7.2600000000000007</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
       <c r="B15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15">
         <f>H4+H6+H7+H8+H9+H10+H12+H13+H14</f>
-        <v>642.45000000000005</v>
-      </c>
-      <c r="I15">
-        <f>I4+I6+I7+I8+I9+I10+I12+I13+I14</f>
-        <v>672.6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>607.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="12"/>
       <c r="E16" s="1"/>
@@ -1146,36 +1099,28 @@
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C29" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="C29" s="3"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C30" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C31" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C32" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -1197,7 +1142,7 @@
     </row>
     <row r="35" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C35" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -1219,17 +1164,17 @@
     </row>
     <row r="38" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C38" s="3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C42" s="12" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1249,12 +1194,11 @@
     <hyperlink ref="C4" r:id="rId1" xr:uid="{7AF77F59-9F5C-4BF2-A28C-6B8914EA7818}"/>
     <hyperlink ref="C35" r:id="rId2" xr:uid="{1038EA44-1C1E-4578-8AC0-F5E95403379F}"/>
     <hyperlink ref="C38" r:id="rId3" xr:uid="{D71971BB-FA60-4A5A-A0F5-B75FC5F07AE2}"/>
-    <hyperlink ref="C29" r:id="rId4" xr:uid="{AE679387-7C0C-43E3-A61B-AB73CE088C6E}"/>
-    <hyperlink ref="C42" r:id="rId5" xr:uid="{B00A709D-30D3-4D8C-9000-6E2D9372C068}"/>
-    <hyperlink ref="C13" r:id="rId6" xr:uid="{FAE1A0B8-537A-4B7B-A8E3-F4B7E564CE28}"/>
-    <hyperlink ref="C14" r:id="rId7" xr:uid="{3DB6ED2B-1775-49FA-B141-9735F58B1835}"/>
+    <hyperlink ref="C42" r:id="rId4" xr:uid="{B00A709D-30D3-4D8C-9000-6E2D9372C068}"/>
+    <hyperlink ref="C13" r:id="rId5" xr:uid="{FAE1A0B8-537A-4B7B-A8E3-F4B7E564CE28}"/>
+    <hyperlink ref="C14" r:id="rId6" xr:uid="{3DB6ED2B-1775-49FA-B141-9735F58B1835}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>